--- a/data/ifr-younger-all-variables-2021-10-18.xlsx
+++ b/data/ifr-younger-all-variables-2021-10-18.xlsx
@@ -627,7 +627,7 @@
         <v>1.429519868715106e-05</v>
       </c>
       <c r="Q2">
-        <v>1.157911093659236e-05</v>
+        <v>1.181421379103393e-05</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -662,10 +662,10 @@
         <v>0.6376569858712716</v>
       </c>
       <c r="AM2">
-        <v>9.115433307279705e-06</v>
+        <v>7.533415956429507e-06</v>
       </c>
       <c r="AN2">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="AP2">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="AP3">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="4">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="AP4">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="5">
@@ -942,7 +942,7 @@
         <v>2.016123187528177e-05</v>
       </c>
       <c r="Q5">
-        <v>1.633059781897823e-05</v>
+        <v>1.666217510353865e-05</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>2.016123187528177e-05</v>
+        <v>1.666217510353865e-05</v>
       </c>
       <c r="AN5">
-        <v>5.889318100234075e-05</v>
+        <v>4.867205041515764e-05</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="AP5">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1061,7 +1061,7 @@
         <v>4.05232464961878e-05</v>
       </c>
       <c r="Q6">
-        <v>3.282382966191212e-05</v>
+        <v>3.349028636048578e-05</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
         <v>0.5</v>
       </c>
       <c r="AM6">
-        <v>2.02616232480939e-05</v>
+        <v>1.674514318024289e-05</v>
       </c>
       <c r="AN6">
-        <v>3.195133169409728e-05</v>
+        <v>2.640605925132006e-05</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="AP6">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1173,7 +1173,7 @@
         <v>3.293546319644525e-05</v>
       </c>
       <c r="Q7">
-        <v>2.667772518912065e-05</v>
+        <v>2.721939107144234e-05</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1213,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>3.293546319644525e-05</v>
+        <v>2.721939107144234e-05</v>
       </c>
       <c r="AN7">
-        <v>3.293546319644525e-05</v>
+        <v>2.721939107144234e-05</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="AP7">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="AP8">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="AP9">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1505,7 +1505,7 @@
         <v>1.741710711047128e-05</v>
       </c>
       <c r="Q10">
-        <v>1.410785675948173e-05</v>
+        <v>1.43943033970837e-05</v>
       </c>
       <c r="AF10">
         <v>2</v>
@@ -1535,10 +1535,10 @@
         <v>0.02002670226969292</v>
       </c>
       <c r="AM10">
-        <v>3.488072185007599e-07</v>
+        <v>2.882704285130246e-07</v>
       </c>
       <c r="AN10">
-        <v>3.609954540583153e-06</v>
+        <v>2.983433504614176e-06</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="AP10">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1604,7 +1604,7 @@
         <v>3.702764301219896e-05</v>
       </c>
       <c r="Q11">
-        <v>2.999239083988116e-05</v>
+        <v>3.060135786132145e-05</v>
       </c>
       <c r="AF11">
         <v>4.157414584699779</v>
@@ -1634,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="AM11">
-        <v>3.702764301219896e-05</v>
+        <v>3.060135786132145e-05</v>
       </c>
       <c r="AN11">
-        <v>3.702764301219896e-05</v>
+        <v>3.060135786132145e-05</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="AP11">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1698,7 +1698,7 @@
         <v>1.345400387883414e-06</v>
       </c>
       <c r="Q12">
-        <v>1.089774314185566e-06</v>
+        <v>1.111901147011086e-06</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="AM12">
-        <v>1.345400387883414e-06</v>
+        <v>1.111901147011086e-06</v>
       </c>
       <c r="AN12">
-        <v>2.03452794344589e-05</v>
+        <v>1.68142805243462e-05</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="AP12">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="AP13">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="AP14">
-        <v>9.977174729365787e-06</v>
+        <v>8.395157378515588e-06</v>
       </c>
     </row>
     <row r="15">
@@ -2006,7 +2006,7 @@
         <v>9.435976242490971e-05</v>
       </c>
       <c r="Q15">
-        <v>7.643140756417687e-05</v>
+        <v>7.798327473133033e-05</v>
       </c>
       <c r="AF15">
         <v>26</v>
@@ -2036,10 +2036,10 @@
         <v>0.3018999396107214</v>
       </c>
       <c r="AM15">
-        <v>2.848720657776226e-05</v>
+        <v>2.354314593203492e-05</v>
       </c>
       <c r="AN15">
-        <v>0.0001718035133894604</v>
+        <v>0.0001419863747020333</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="AP15">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="16">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="AP16">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="AP17">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2311,7 +2311,7 @@
         <v>0.0001335773740999961</v>
       </c>
       <c r="Q18">
-        <v>0.0001081976730209969</v>
+        <v>0.0001103945240495836</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2363,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="AM18">
-        <v>0.0001335773740999961</v>
+        <v>0.0001103945240495836</v>
       </c>
       <c r="AN18">
-        <v>0.0001335773740999961</v>
+        <v>0.0001103945240495836</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="AP18">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2430,7 +2430,7 @@
         <v>0.0001170471612628914</v>
       </c>
       <c r="Q19">
-        <v>9.480820062294208e-05</v>
+        <v>9.673319112635656e-05</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="AM19">
-        <v>0.0001170471612628914</v>
+        <v>9.673319112635656e-05</v>
       </c>
       <c r="AN19">
-        <v>0.0001170471612628914</v>
+        <v>9.673319112635656e-05</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="AP19">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="20">
@@ -2542,7 +2542,7 @@
         <v>5.792356908223724e-05</v>
       </c>
       <c r="Q20">
-        <v>4.691809095661217e-05</v>
+        <v>4.787071824978283e-05</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2582,10 +2582,10 @@
         <v>0.7348945929258182</v>
       </c>
       <c r="AM20">
-        <v>4.256771772150124e-05</v>
+        <v>3.517993200124069e-05</v>
       </c>
       <c r="AN20">
-        <v>4.786266142956343e-05</v>
+        <v>3.955591853682926e-05</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="AP20">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="21">
@@ -2649,7 +2649,7 @@
         <v>0.0001116071110421169</v>
       </c>
       <c r="Q21">
-        <v>9.040175994411471e-05</v>
+        <v>9.223728185298917e-05</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -2684,10 +2684,10 @@
         <v>0.1462022537684765</v>
       </c>
       <c r="AM21">
-        <v>1.631721117094611e-05</v>
+        <v>1.348529848838522e-05</v>
       </c>
       <c r="AN21">
-        <v>3.060038165784052e-05</v>
+        <v>2.177186407870398e-05</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="AP21">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="22">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="AP22">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="23">
@@ -2847,7 +2847,7 @@
         <v>9.668352779049568e-05</v>
       </c>
       <c r="Q23">
-        <v>7.831365751030152e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2899,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="AM23">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
       <c r="AN23">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="AP23">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="24">
@@ -2968,7 +2968,7 @@
         <v>0.0001290724241166939</v>
       </c>
       <c r="Q24">
-        <v>0.0001045486635345221</v>
+        <v>0.0001066714248898297</v>
       </c>
       <c r="AF24">
         <v>16.62965833879912</v>
@@ -2998,10 +2998,10 @@
         <v>1</v>
       </c>
       <c r="AM24">
-        <v>0.0001290724241166939</v>
+        <v>0.0001066714248898297</v>
       </c>
       <c r="AN24">
-        <v>0.0001290724241166939</v>
+        <v>0.0001066714248898297</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="AP24">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="25">
@@ -3062,7 +3062,7 @@
         <v>0.0002450997780611936</v>
       </c>
       <c r="Q25">
-        <v>0.0001985308202295668</v>
+        <v>0.0002025618000505732</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="AM25">
-        <v>0.0002450997780611936</v>
+        <v>0.0002025618000505732</v>
       </c>
       <c r="AN25">
-        <v>0.0002450997780611936</v>
+        <v>0.0002025618000505732</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="AP25">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="26">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="AP26">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="27">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="AP27">
-        <v>9.668352779049568e-05</v>
+        <v>7.990374197561625e-05</v>
       </c>
     </row>
     <row r="28">
@@ -3362,7 +3362,7 @@
         <v>0.0009082063065575301</v>
       </c>
       <c r="Q28">
-        <v>0.0007356471083115994</v>
+        <v>0.0007505837244277107</v>
       </c>
       <c r="AF28">
         <v>396</v>
@@ -3392,10 +3392,10 @@
         <v>0.9111894838089131</v>
       </c>
       <c r="AM28">
-        <v>0.0008275480356641553</v>
+        <v>0.0006839239964166572</v>
       </c>
       <c r="AN28">
-        <v>0.0009100985132791869</v>
+        <v>0.0007521475316356915</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="AP28">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="29">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="AP29">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="30">
@@ -3576,7 +3576,7 @@
         <v>0.0002921390770350469</v>
       </c>
       <c r="Q30">
-        <v>0.000236632652398388</v>
+        <v>0.0002414372537479726</v>
       </c>
       <c r="AF30">
         <v>3.149643705463183</v>
@@ -3606,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="AM30">
-        <v>0.0002921390770350469</v>
+        <v>0.0002414372537479726</v>
       </c>
       <c r="AN30">
-        <v>0.0002921390770350469</v>
+        <v>0.0002414372537479726</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="AP30">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="31">
@@ -3667,7 +3667,7 @@
         <v>0.0002745890584874057</v>
       </c>
       <c r="Q31">
-        <v>0.0002224171373747986</v>
+        <v>0.0002269331061879386</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3719,10 +3719,10 @@
         <v>1</v>
       </c>
       <c r="AM31">
-        <v>0.0002745890584874057</v>
+        <v>0.0002269331061879386</v>
       </c>
       <c r="AN31">
-        <v>0.0002745890584874057</v>
+        <v>0.0002269331061879386</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="AP31">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="32">
@@ -3786,7 +3786,7 @@
         <v>0.0001439280386170115</v>
       </c>
       <c r="Q32">
-        <v>0.0001165817112797793</v>
+        <v>0.000118948792245464</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -3826,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="AM32">
-        <v>0.0001439280386170115</v>
+        <v>0.000118948792245464</v>
       </c>
       <c r="AN32">
-        <v>0.0001439280386170115</v>
+        <v>0.000118948792245464</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="AP32">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="33">
@@ -3898,7 +3898,7 @@
         <v>0.0002873113613809702</v>
       </c>
       <c r="Q33">
-        <v>0.0002327222027185859</v>
+        <v>0.0002374474060999753</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -3938,10 +3938,10 @@
         <v>0.7348945929258182</v>
       </c>
       <c r="AM33">
-        <v>0.0002111435659650307</v>
+        <v>0.0001744988148471328</v>
       </c>
       <c r="AN33">
-        <v>0.0002287506214031132</v>
+        <v>0.0001890501003331514</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="AP33">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="34">
@@ -4005,7 +4005,7 @@
         <v>0.0004046952051675176</v>
       </c>
       <c r="Q34">
-        <v>0.0003278031161856893</v>
+        <v>0.0003344588472458823</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -4040,10 +4040,10 @@
         <v>0.1203940827332711</v>
       </c>
       <c r="AM34">
-        <v>4.872290801269622e-05</v>
+        <v>4.026686612619522e-05</v>
       </c>
       <c r="AN34">
-        <v>0.0001116503579136764</v>
+        <v>6.969946996122548e-05</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="AP34">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="35">
@@ -4104,7 +4104,7 @@
         <v>3.249296049378013e-05</v>
       </c>
       <c r="Q35">
-        <v>2.631929799996191e-05</v>
+        <v>2.685368635849597e-05</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -4139,10 +4139,10 @@
         <v>1</v>
       </c>
       <c r="AM35">
-        <v>3.249296049378013e-05</v>
+        <v>2.685368635849597e-05</v>
       </c>
       <c r="AN35">
-        <v>3.249296049378013e-05</v>
+        <v>2.685368635849597e-05</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="AP35">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="36">
@@ -4203,7 +4203,7 @@
         <v>0.0001836029789184872</v>
       </c>
       <c r="Q36">
-        <v>0.0001487184129239746</v>
+        <v>0.0001517379991061877</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -4255,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="AM36">
-        <v>0.0001836029789184872</v>
+        <v>0.0001517379991061877</v>
       </c>
       <c r="AN36">
-        <v>0.0001836029789184872</v>
+        <v>0.0001517379991061877</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="AP36">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="37">
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="M37">
-        <v>161384.1569538654</v>
+        <v>510491.814</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -4313,10 +4313,10 @@
         </is>
       </c>
       <c r="P37">
-        <v>0.0004250562257307337</v>
+        <v>0.0001343750061534706</v>
       </c>
       <c r="Q37">
-        <v>0.0003442955428418944</v>
+        <v>0.0001110537240937773</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -4368,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="AM37">
-        <v>0.0004250562257307337</v>
+        <v>0.0001110537240937773</v>
       </c>
       <c r="AN37">
-        <v>0.0004250562257307337</v>
+        <v>0.0001110537240937773</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="AP37">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="38">
@@ -4432,7 +4432,7 @@
         <v>0.000275638605332477</v>
       </c>
       <c r="Q38">
-        <v>0.0002232672703193064</v>
+        <v>0.0002278005002747744</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -4467,10 +4467,10 @@
         <v>1</v>
       </c>
       <c r="AM38">
-        <v>0.000275638605332477</v>
+        <v>0.0002278005002747744</v>
       </c>
       <c r="AN38">
-        <v>0.000275638605332477</v>
+        <v>0.0002278005002747744</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="AP38">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="39">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="AP39">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="40">
@@ -4630,7 +4630,7 @@
         <v>6.039448471412903e-05</v>
       </c>
       <c r="Q40">
-        <v>4.891953261844452e-05</v>
+        <v>4.991279728440415e-05</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -4665,10 +4665,10 @@
         <v>1</v>
       </c>
       <c r="AM40">
-        <v>6.039448471412903e-05</v>
+        <v>4.991279728440415e-05</v>
       </c>
       <c r="AN40">
-        <v>6.039448471412903e-05</v>
+        <v>4.991279728440415e-05</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="AP40">
-        <v>0.0002287506214031132</v>
+        <v>0.0001517379991061877</v>
       </c>
     </row>
     <row r="41">
@@ -4732,7 +4732,7 @@
         <v>0.002746523704450831</v>
       </c>
       <c r="Q41">
-        <v>0.002224684200605173</v>
+        <v>0.002269854301199034</v>
       </c>
       <c r="AF41">
         <v>1340</v>
@@ -4762,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="AM41">
-        <v>0.002746523704450831</v>
+        <v>0.002269854301199034</v>
       </c>
       <c r="AN41">
-        <v>0.002746523704450831</v>
+        <v>0.002269854301199034</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="AP41">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="42">
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="AP42">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="43">
@@ -4946,7 +4946,7 @@
         <v>0.0005064561549289052</v>
       </c>
       <c r="Q43">
-        <v>0.0004102294854924132</v>
+        <v>0.0004185588057263679</v>
       </c>
       <c r="AF43">
         <v>8.399049881235154</v>
@@ -4976,10 +4976,10 @@
         <v>1</v>
       </c>
       <c r="AM43">
-        <v>0.0005064561549289052</v>
+        <v>0.0004185588057263679</v>
       </c>
       <c r="AN43">
-        <v>0.0005064561549289052</v>
+        <v>0.0004185588057263679</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="AP43">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="44">
@@ -5037,7 +5037,7 @@
         <v>0.000810624889632656</v>
       </c>
       <c r="Q44">
-        <v>0.0006566061606024514</v>
+        <v>0.0006699379253162445</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -5089,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="AM44">
-        <v>0.000810624889632656</v>
+        <v>0.0006699379253162445</v>
       </c>
       <c r="AN44">
-        <v>0.000810624889632656</v>
+        <v>0.0006699379253162445</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         </is>
       </c>
       <c r="AP44">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="45">
@@ -5156,7 +5156,7 @@
         <v>0.0002360001051077153</v>
       </c>
       <c r="Q45">
-        <v>0.0001911600851372494</v>
+        <v>0.00019504140917993</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -5196,10 +5196,10 @@
         <v>1</v>
       </c>
       <c r="AM45">
-        <v>0.0002360001051077153</v>
+        <v>0.00019504140917993</v>
       </c>
       <c r="AN45">
-        <v>0.0002360001051077153</v>
+        <v>0.00019504140917993</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="AP45">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="46">
@@ -5263,7 +5263,7 @@
         <v>0.0002043707792925744</v>
       </c>
       <c r="Q46">
-        <v>0.0001655403312269853</v>
+        <v>0.0001689014704897309</v>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
@@ -5298,10 +5298,10 @@
         <v>1</v>
       </c>
       <c r="AM46">
-        <v>0.0002043707792925744</v>
+        <v>0.0001689014704897309</v>
       </c>
       <c r="AN46">
-        <v>0.0002043707792925744</v>
+        <v>0.0001689014704897309</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="AP46">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="47">
@@ -5365,7 +5365,7 @@
         <v>0.003245959169460831</v>
       </c>
       <c r="Q47">
-        <v>0.002629226927263274</v>
+        <v>0.002682610883851926</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -5400,10 +5400,10 @@
         <v>0.08586531436675406</v>
       </c>
       <c r="AM47">
-        <v>0.0002787153045074022</v>
+        <v>0.0002303432268656216</v>
       </c>
       <c r="AN47">
-        <v>0.0004703033556608154</v>
+        <v>0.0002907316781852447</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="AP47">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="48">
@@ -5464,7 +5464,7 @@
         <v>0.0001063541814636855</v>
       </c>
       <c r="Q48">
-        <v>8.614688698558527e-05</v>
+        <v>8.789601773858305e-05</v>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
@@ -5499,10 +5499,10 @@
         <v>1</v>
       </c>
       <c r="AM48">
-        <v>0.0001063541814636855</v>
+        <v>8.789601773858305e-05</v>
       </c>
       <c r="AN48">
-        <v>0.0001063541814636855</v>
+        <v>8.789601773858305e-05</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="AP48">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="49">
@@ -5563,7 +5563,7 @@
         <v>0.0005026510089097169</v>
       </c>
       <c r="Q49">
-        <v>0.0004071473172168707</v>
+        <v>0.0004154140569501792</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -5615,10 +5615,10 @@
         <v>1</v>
       </c>
       <c r="AM49">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
       <c r="AN49">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="AP49">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="50">
@@ -5684,7 +5684,7 @@
         <v>0.001370758069020463</v>
       </c>
       <c r="Q50">
-        <v>0.001110314035906576</v>
+        <v>0.001132857908281374</v>
       </c>
       <c r="AF50">
         <v>303.4912646830839</v>
@@ -5714,10 +5714,10 @@
         <v>1</v>
       </c>
       <c r="AM50">
-        <v>0.001370758069020463</v>
+        <v>0.001132857908281374</v>
       </c>
       <c r="AN50">
-        <v>0.001370758069020463</v>
+        <v>0.001132857908281374</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="AP50">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="51">
@@ -5778,7 +5778,7 @@
         <v>0.0006773287931421657</v>
       </c>
       <c r="Q51">
-        <v>0.0005486363224451543</v>
+        <v>0.0005597758621009633</v>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
@@ -5813,10 +5813,10 @@
         <v>1</v>
       </c>
       <c r="AM51">
-        <v>0.0006773287931421657</v>
+        <v>0.0005597758621009633</v>
       </c>
       <c r="AN51">
-        <v>0.0006773287931421657</v>
+        <v>0.0005597758621009633</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="AP51">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="52">
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="AP52">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="53">
@@ -5976,7 +5976,7 @@
         <v>8.953290529423318e-05</v>
       </c>
       <c r="Q53">
-        <v>7.252165328832888e-05</v>
+        <v>7.399413660680427e-05</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
@@ -6011,10 +6011,10 @@
         <v>1</v>
       </c>
       <c r="AM53">
-        <v>8.953290529423318e-05</v>
+        <v>7.399413660680427e-05</v>
       </c>
       <c r="AN53">
-        <v>8.953290529423318e-05</v>
+        <v>7.399413660680427e-05</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="AP53">
-        <v>0.0005026510089097169</v>
+        <v>0.0004154140569501792</v>
       </c>
     </row>
     <row r="54">
@@ -6078,7 +6078,7 @@
         <v>0.008998750355708032</v>
       </c>
       <c r="Q54">
-        <v>0.007288987788123507</v>
+        <v>0.007436983765047959</v>
       </c>
       <c r="AF54">
         <v>3601</v>
@@ -6108,10 +6108,10 @@
         <v>0.6280472789953213</v>
       </c>
       <c r="AM54">
-        <v>0.005651640675260609</v>
+        <v>0.004670777417570751</v>
       </c>
       <c r="AN54">
-        <v>0.007002088658602807</v>
+        <v>0.005644840323729902</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="AP54">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="55">
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="AP55">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="56">
@@ -6292,7 +6292,7 @@
         <v>0.001888079324045799</v>
       </c>
       <c r="Q56">
-        <v>0.001529344252477098</v>
+        <v>0.00156039613557504</v>
       </c>
       <c r="AF56">
         <v>36.7458432304038</v>
@@ -6322,10 +6322,10 @@
         <v>1</v>
       </c>
       <c r="AM56">
-        <v>0.001888079324045799</v>
+        <v>0.00156039613557504</v>
       </c>
       <c r="AN56">
-        <v>0.001888079324045799</v>
+        <v>0.00156039613557504</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="AP56">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="57">
@@ -6383,7 +6383,7 @@
         <v>0.002675002352708939</v>
       </c>
       <c r="Q57">
-        <v>0.00216675190569424</v>
+        <v>0.002210745746040445</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -6435,10 +6435,10 @@
         <v>1</v>
       </c>
       <c r="AM57">
-        <v>0.002675002352708939</v>
+        <v>0.002210745746040445</v>
       </c>
       <c r="AN57">
-        <v>0.002675002352708939</v>
+        <v>0.002210745746040445</v>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="AP57">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="58">
@@ -6502,7 +6502,7 @@
         <v>0.0007336892431912425</v>
       </c>
       <c r="Q58">
-        <v>0.0005942882869849064</v>
+        <v>0.0006063547464390433</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -6542,10 +6542,10 @@
         <v>1</v>
       </c>
       <c r="AM58">
-        <v>0.0007336892431912425</v>
+        <v>0.0006063547464390433</v>
       </c>
       <c r="AN58">
-        <v>0.0007336892431912425</v>
+        <v>0.0006063547464390433</v>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="AP58">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="59">
@@ -6614,7 +6614,7 @@
         <v>0.001977295414202105</v>
       </c>
       <c r="Q59">
-        <v>0.001601609285503705</v>
+        <v>0.001634128441489343</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -6654,10 +6654,10 @@
         <v>0.6132075471698113</v>
       </c>
       <c r="AM59">
-        <v>0.001212492470972989</v>
+        <v>0.001002059893366107</v>
       </c>
       <c r="AN59">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="AP59">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="60">
@@ -6721,7 +6721,7 @@
         <v>0.005982508410257723</v>
       </c>
       <c r="Q60">
-        <v>0.004845831812308756</v>
+        <v>0.004944221826659274</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -6756,10 +6756,10 @@
         <v>0.1107017203645732</v>
       </c>
       <c r="AM60">
-        <v>0.000662273973111058</v>
+        <v>0.0005473338620752545</v>
       </c>
       <c r="AN60">
-        <v>0.00112132738089212</v>
+        <v>0.000775698026609147</v>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="AP60">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="61">
@@ -6820,7 +6820,7 @@
         <v>0.0005567377825825014</v>
       </c>
       <c r="Q61">
-        <v>0.0004509576038918261</v>
+        <v>0.0004601138699028936</v>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
@@ -6855,10 +6855,10 @@
         <v>1</v>
       </c>
       <c r="AM61">
-        <v>0.0005567377825825014</v>
+        <v>0.0004601138699028936</v>
       </c>
       <c r="AN61">
-        <v>0.0005567377825825014</v>
+        <v>0.0004601138699028936</v>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="AP61">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="62">
@@ -6919,7 +6919,7 @@
         <v>0.004874258262235811</v>
       </c>
       <c r="Q62">
-        <v>0.003948149192411007</v>
+        <v>0.004028312613418025</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -6971,10 +6971,10 @@
         <v>0.04593248478140564</v>
       </c>
       <c r="AM62">
-        <v>0.0002238867934507871</v>
+        <v>0.0001850304078105678</v>
       </c>
       <c r="AN62">
-        <v>0.002551388069151615</v>
+        <v>0.002108585181117037</v>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="AP62">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="63">
@@ -7035,7 +7035,7 @@
         <v>0.004149637270686486</v>
       </c>
       <c r="Q63">
-        <v>0.003361206189256054</v>
+        <v>0.003429452289823541</v>
       </c>
       <c r="AF63">
         <v>1216.043766024686</v>
@@ -7065,10 +7065,10 @@
         <v>1</v>
       </c>
       <c r="AM63">
-        <v>0.004149637270686486</v>
+        <v>0.003429452289823541</v>
       </c>
       <c r="AN63">
-        <v>0.004149637270686486</v>
+        <v>0.003429452289823541</v>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="AP63">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="64">
@@ -7129,7 +7129,7 @@
         <v>0.001318915881048784</v>
       </c>
       <c r="Q64">
-        <v>0.001068321863649515</v>
+        <v>0.001090013124833706</v>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
@@ -7164,10 +7164,10 @@
         <v>1</v>
       </c>
       <c r="AM64">
-        <v>0.001318915881048784</v>
+        <v>0.001090013124833706</v>
       </c>
       <c r="AN64">
-        <v>0.001318915881048784</v>
+        <v>0.001090013124833706</v>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="AP64">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="65">
@@ -7274,7 +7274,7 @@
         </is>
       </c>
       <c r="AP65">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="66">
@@ -7327,7 +7327,7 @@
         <v>0.000303286868786716</v>
       </c>
       <c r="Q66">
-        <v>0.0002456623637172399</v>
+        <v>0.0002506503047824098</v>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
@@ -7362,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="AM66">
-        <v>0.000303286868786716</v>
+        <v>0.0002506503047824098</v>
       </c>
       <c r="AN66">
-        <v>0.000303286868786716</v>
+        <v>0.0002506503047824098</v>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="AP66">
-        <v>0.001491739275725884</v>
+        <v>0.001232842376632962</v>
       </c>
     </row>
     <row r="67">
@@ -7423,7 +7423,7 @@
         <v>0.009874201689438224</v>
       </c>
       <c r="Q67">
-        <v>0.007998103368444963</v>
+        <v>0.008160497263998531</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -7475,10 +7475,10 @@
         <v>1</v>
       </c>
       <c r="AM67">
-        <v>0.009874201689438224</v>
+        <v>0.008160497263998531</v>
       </c>
       <c r="AN67">
-        <v>0.009874201689438224</v>
+        <v>0.008160497263998531</v>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="AP67">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
     <row r="68">
@@ -7542,7 +7542,7 @@
         <v>0.001691088909044782</v>
       </c>
       <c r="Q68">
-        <v>0.001369782016326273</v>
+        <v>0.001397594139706431</v>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
@@ -7577,10 +7577,10 @@
         <v>1</v>
       </c>
       <c r="AM68">
-        <v>0.001691088909044782</v>
+        <v>0.001397594139706431</v>
       </c>
       <c r="AN68">
-        <v>0.001691088909044782</v>
+        <v>0.001397594139706431</v>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="AP68">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
     <row r="69">
@@ -7641,7 +7641,7 @@
         <v>0.001751534892217712</v>
       </c>
       <c r="Q69">
-        <v>0.001418743262696347</v>
+        <v>0.001447549497700588</v>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
@@ -7676,10 +7676,10 @@
         <v>1</v>
       </c>
       <c r="AM69">
-        <v>0.001751534892217712</v>
+        <v>0.001447549497700588</v>
       </c>
       <c r="AN69">
-        <v>0.001751534892217712</v>
+        <v>0.001447549497700588</v>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="AP69">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
     <row r="70">
@@ -7740,7 +7740,7 @@
         <v>0.01154630730962609</v>
       </c>
       <c r="Q70">
-        <v>0.009352508920797135</v>
+        <v>0.009542402735228175</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -7792,10 +7792,10 @@
         <v>1</v>
       </c>
       <c r="AM70">
-        <v>0.01154630730962609</v>
+        <v>0.009542402735228175</v>
       </c>
       <c r="AN70">
-        <v>0.01154630730962609</v>
+        <v>0.009542402735228175</v>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="AP70">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
     <row r="71">
@@ -7856,7 +7856,7 @@
         <v>0.01837278262970761</v>
       </c>
       <c r="Q71">
-        <v>0.01488195393006316</v>
+        <v>0.01518411787579141</v>
       </c>
       <c r="AF71">
         <v>3530.684336056288</v>
@@ -7886,10 +7886,10 @@
         <v>1</v>
       </c>
       <c r="AM71">
-        <v>0.01837278262970761</v>
+        <v>0.01518411787579141</v>
       </c>
       <c r="AN71">
-        <v>0.01837278262970761</v>
+        <v>0.01518411787579141</v>
       </c>
       <c r="AO71" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="AP71">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
     <row r="72">
@@ -7953,7 +7953,7 @@
         <v>0.01034323631908088</v>
       </c>
       <c r="Q72">
-        <v>0.008378021418455516</v>
+        <v>0.008548129189323043</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
@@ -7988,10 +7988,10 @@
         <v>0.1307077625570776</v>
       </c>
       <c r="AM72">
-        <v>0.001351941276866166</v>
+        <v>0.001117306840385261</v>
       </c>
       <c r="AN72">
-        <v>0.002645498714114332</v>
+        <v>0.001537481593978049</v>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="AP72">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
     <row r="73">
@@ -8052,7 +8052,7 @@
         <v>0.01081018378137919</v>
       </c>
       <c r="Q73">
-        <v>0.008756248862917143</v>
+        <v>0.008934036182958006</v>
       </c>
       <c r="AE73" t="inlineStr">
         <is>
@@ -8087,10 +8087,10 @@
         <v>1</v>
       </c>
       <c r="AM73">
-        <v>0.01081018378137919</v>
+        <v>0.008934036182958006</v>
       </c>
       <c r="AN73">
-        <v>0.01081018378137919</v>
+        <v>0.008934036182958006</v>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="AP73">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
     <row r="74">
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="M74">
-        <v>12018.08610347436</v>
+        <v>55357.125</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -8150,10 +8150,10 @@
         </is>
       </c>
       <c r="P74">
-        <v>0.004909267539940778</v>
+        <v>0.001065806795421547</v>
       </c>
       <c r="Q74">
-        <v>0.004909267539940778</v>
+        <v>0.001065806795421547</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -8205,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="AM74">
-        <v>0.004909267539940778</v>
+        <v>0.001065806795421547</v>
       </c>
       <c r="AN74">
-        <v>0.004909267539940778</v>
+        <v>0.001065806795421547</v>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         </is>
       </c>
       <c r="AP74">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
     <row r="75">
@@ -8269,7 +8269,7 @@
         <v>0.001571592616504913</v>
       </c>
       <c r="Q75">
-        <v>0.00127299001936898</v>
+        <v>0.001298836873144556</v>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
@@ -8304,10 +8304,10 @@
         <v>1</v>
       </c>
       <c r="AM75">
-        <v>0.001571592616504913</v>
+        <v>0.001298836873144556</v>
       </c>
       <c r="AN75">
-        <v>0.001571592616504913</v>
+        <v>0.001298836873144556</v>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="AP75">
-        <v>0.004909267539940778</v>
+        <v>0.001537481593978049</v>
       </c>
     </row>
   </sheetData>
